--- a/Payrolls.xlsx
+++ b/Payrolls.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,25 +398,1231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>ClientName</v>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
+        <v>Cliente</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Nit</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Nombre</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Documento</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Nombre colaborador</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Cargo</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Centro de costo</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Centro de utilidad</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Codigo Concepto</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Concepto</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Categoria</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Observaciones</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Fecha Reporte</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B2" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E2" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F2" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Ausentismos</v>
+      </c>
+      <c r="L2" t="str">
+        <v>rnbr g</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45344.51108049769</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B3" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C3" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E3" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F3" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Por motivación</v>
+      </c>
+      <c r="L3" t="str">
+        <v>sdv s df</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45344.514648125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B4" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C4" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F4" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Incapacidades</v>
+      </c>
+      <c r="L4" t="str">
+        <v>segunda incapacidad ds f</v>
+      </c>
+      <c r="M4" s="1">
+        <v>45344.51525783565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B5" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C5" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F5" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Ausentismos</v>
+      </c>
+      <c r="L5" t="str">
+        <v>ausentismo 1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>45344.516158136576</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B6" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C6" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F6" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Por motivación</v>
+      </c>
+      <c r="L6" t="str">
+        <v>nueva renuncia de motivacion</v>
+      </c>
+      <c r="M6" s="1">
+        <v>45344.61464025463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B7" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C7" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F7" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Terminación sin justa causa</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45344.674158090274</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B8" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C8" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E8" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F8" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Terminación por periodo de prueba</v>
+      </c>
+      <c r="M8" s="1">
+        <v>45344.6749844213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B9" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C9" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E9" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F9" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Terminación por fallecimiento</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45344.67544353009</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B10" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C10" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E10" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F10" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Por motivación</v>
+      </c>
+      <c r="M10" s="1">
+        <v>45344.67585678241</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B11" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C11" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E11" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F11" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Voluntaria</v>
+      </c>
+      <c r="M11" s="1">
+        <v>45344.69339689815</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B12" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C12" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E12" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F12" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Terminación por justa causa</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45344.693720428244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B13" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C13" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E13" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F13" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Terminación sin justa causa</v>
+      </c>
+      <c r="M13" s="1">
+        <v>45344.69412395833</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B14" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C14" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F14" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Terminación por renuncia</v>
+      </c>
+      <c r="M14" s="1">
+        <v>45344.69443447917</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B15" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C15" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F15" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Terminación por periodo de prueba</v>
+      </c>
+      <c r="M15" s="1">
+        <v>45344.694746747686</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B16" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C16" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F16" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Terminación por obra labor</v>
+      </c>
+      <c r="M16" s="1">
+        <v>45344.69506922454</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B17" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C17" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F17" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Terminación aprendices de SENA</v>
+      </c>
+      <c r="M17" s="1">
+        <v>45344.69539119213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B18" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C18" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F18" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I18" t="str">
+        <v>279</v>
+      </c>
+      <c r="J18" t="str">
+        <v>MAYOR VR PAGADO MES ANTERIOR</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45344.70437824074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B19" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C19" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F19" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I19" t="str">
+        <v>119</v>
+      </c>
+      <c r="J19" t="str">
+        <v>MAYOR VR PAGADO HORAS MES ANTERIOR</v>
+      </c>
+      <c r="M19" s="1">
+        <v>45344.70591787037</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B20" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C20" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E20" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F20" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I20" t="str">
+        <v>18</v>
+      </c>
+      <c r="J20" t="str">
+        <v>ANTICIPO DE SALARIO</v>
+      </c>
+      <c r="M20" s="1">
+        <v>45344.706356076385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B21" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C21" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F21" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I21" t="str">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <v>SUBSIDIO TRANSPORTE</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45344.70698166667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B22" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C22" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F22" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I22" t="str">
+        <v>116</v>
+      </c>
+      <c r="J22" t="str">
+        <v>AJUSTE SALARIO LIQUIDACION ANTERIOR</v>
+      </c>
+      <c r="M22" s="1">
+        <v>45344.71002540509</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B23" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C23" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F23" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I23" t="str">
+        <v>116</v>
+      </c>
+      <c r="J23" t="str">
+        <v>AJUSTE SALARIO LIQUIDACION ANTERIOR</v>
+      </c>
+      <c r="M23" s="1">
+        <v>45344.83300254629</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B24" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C24" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F24" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Terminación sin justa causa</v>
+      </c>
+      <c r="M24" s="1">
+        <v>45344.83754424768</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B25" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C25" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E25" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F25" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Incapacidades</v>
+      </c>
+      <c r="L25" t="str">
+        <v xml:space="preserve">juhsdvvj sjdh suh s </v>
+      </c>
+      <c r="M25" s="1">
+        <v>45344.854942847225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B26" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C26" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E26" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F26" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Voluntaria</v>
+      </c>
+      <c r="L26" t="str">
+        <v xml:space="preserve">hg h h hhg </v>
+      </c>
+      <c r="M26" s="1">
+        <v>45344.856144178244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B27" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C27" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E27" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F27" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I27" t="str">
+        <v>1</v>
+      </c>
+      <c r="J27" t="str">
+        <v>SUBSIDIO TRANSPORTE</v>
+      </c>
+      <c r="M27" s="1">
+        <v>45344.86297591435</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B28" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C28" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E28" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F28" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Terminación sin justa causa</v>
+      </c>
+      <c r="M28" s="1">
+        <v>45344.95678381944</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B29" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C29" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E29" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F29" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I29" t="str">
+        <v>280</v>
+      </c>
+      <c r="J29" t="str">
+        <v>MAYOR VR PAGADO MES ANTERIOR (VR)</v>
+      </c>
+      <c r="M29" s="1">
+        <v>45344.9575478125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B30" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C30" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E30" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F30" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I30" t="str">
+        <v>280</v>
+      </c>
+      <c r="J30" t="str">
+        <v>MAYOR VR PAGADO MES ANTERIOR (VR)</v>
+      </c>
+      <c r="M30" s="1">
+        <v>45344.95796723379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B31" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C31" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E31" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F31" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Terminación por periodo de prueba</v>
+      </c>
+      <c r="M31" s="1">
+        <v>45345.03225107639</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B32" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C32" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F32" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="M32" s="1">
+        <v>45345.41574435185</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B33" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C33" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E33" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F33" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I33" t="str">
+        <v>279</v>
+      </c>
+      <c r="J33" t="str">
+        <v>MAYOR VR PAGADO MES ANTERIOR</v>
+      </c>
+      <c r="M33" s="1">
+        <v>45345.44993925926</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B34" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C34" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E34" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F34" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Voluntaria</v>
+      </c>
+      <c r="M34" s="1">
+        <v>45345.46496630787</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B35" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C35" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E35" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F35" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Ausentismos</v>
+      </c>
+      <c r="L35" t="str">
+        <v>necesito viajar</v>
+      </c>
+      <c r="M35" s="1">
+        <v>45345.53808549768</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B36" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C36" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E36" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F36" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Incapacidades</v>
+      </c>
+      <c r="L36" t="str">
+        <v xml:space="preserve">accidente laboral </v>
+      </c>
+      <c r="M36" s="1">
+        <v>45345.601551527776</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B37" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C37" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E37" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F37" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Acerias paz del rio</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Ausentismos</v>
+      </c>
+      <c r="L37" t="str">
+        <v>ausentismo 1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45345.61717333333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B38" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C38" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E38" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F38" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Voluntaria</v>
+      </c>
+      <c r="L38" t="str">
+        <v xml:space="preserve">por razones personales </v>
+      </c>
+      <c r="M38" s="1">
+        <v>45345.62098965278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B39" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C39" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E39" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F39" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Por motivación</v>
+      </c>
+      <c r="L39" t="str">
+        <v>acoso laboral</v>
+      </c>
+      <c r="M39" s="1">
+        <v>45345.622756944445</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B40" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C40" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E40" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F40" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I40" t="str">
+        <v>242</v>
+      </c>
+      <c r="J40" t="str">
+        <v>ALOJAMIENTO EXTRALEGAL</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45351.61279525463</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B41" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C41" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E41" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F41" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="M41" s="1">
+        <v>45351.617133125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B42" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C42" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E42" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F42" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45351.62421872685</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>T3RS DIGITAL</v>
+      </c>
+      <c r="B43" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="C43" t="str">
+        <v>123456789</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1001588034</v>
+      </c>
+      <c r="E43" t="str">
+        <v xml:space="preserve">EDWAR  BOTERO </v>
+      </c>
+      <c r="F43" t="str">
+        <v>SOLDADOR</v>
+      </c>
+      <c r="I43" t="str">
+        <v>160</v>
+      </c>
+      <c r="J43" t="str">
+        <v>CREDITOS STAFFING</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45351.62518299768</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M43"/>
   </ignoredErrors>
 </worksheet>
 </file>